--- a/Definitions/2_Definitions.xlsx
+++ b/Definitions/2_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="937" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="937" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
@@ -17960,6 +17960,15 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -17969,19 +17978,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
@@ -18437,8 +18437,8 @@
   <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19725,7 +19725,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="221" t="s">
         <v>1581</v>
       </c>
       <c r="B31" s="155" t="s">
@@ -19733,7 +19733,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="217"/>
+      <c r="A32" s="221"/>
       <c r="B32" s="155" t="s">
         <v>1793</v>
       </c>
@@ -19763,7 +19763,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="217" t="s">
+      <c r="A36" s="221" t="s">
         <v>1586</v>
       </c>
       <c r="B36" s="155" t="s">
@@ -19771,7 +19771,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="217"/>
+      <c r="A37" s="221"/>
       <c r="B37" s="155" t="s">
         <v>2161</v>
       </c>
@@ -19989,7 +19989,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="217" t="s">
+      <c r="A65" s="221" t="s">
         <v>1634</v>
       </c>
       <c r="B65" s="155" t="s">
@@ -19997,7 +19997,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="217"/>
+      <c r="A66" s="221"/>
       <c r="B66" s="155" t="s">
         <v>2178</v>
       </c>
@@ -20125,7 +20125,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="218" t="s">
+      <c r="A83" s="216" t="s">
         <v>2278</v>
       </c>
       <c r="B83" s="155" t="s">
@@ -20133,7 +20133,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" s="82" customFormat="1" ht="75">
-      <c r="A84" s="218"/>
+      <c r="A84" s="216"/>
       <c r="B84" s="155" t="s">
         <v>2280</v>
       </c>
@@ -21091,7 +21091,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="218" t="s">
+      <c r="A13" s="216" t="s">
         <v>2055</v>
       </c>
       <c r="B13" s="118" t="s">
@@ -21099,25 +21099,25 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="218"/>
+      <c r="A14" s="216"/>
       <c r="B14" s="118" t="s">
         <v>2057</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="218"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="118" t="s">
         <v>2058</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="218"/>
+      <c r="A16" s="216"/>
       <c r="B16" s="118" t="s">
         <v>2059</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="218"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="118" t="s">
         <v>2060</v>
       </c>
@@ -21129,134 +21129,134 @@
       <c r="B18" s="236"/>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1">
-      <c r="A19" s="216" t="s">
+      <c r="A19" s="219" t="s">
         <v>2062</v>
       </c>
-      <c r="B19" s="216"/>
+      <c r="B19" s="219"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="216"/>
-      <c r="B20" s="216"/>
+      <c r="A20" s="219"/>
+      <c r="B20" s="219"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="216"/>
-      <c r="B21" s="216"/>
+      <c r="A21" s="219"/>
+      <c r="B21" s="219"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="216"/>
-      <c r="B22" s="216"/>
+      <c r="A22" s="219"/>
+      <c r="B22" s="219"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="216"/>
-      <c r="B23" s="216"/>
+      <c r="A23" s="219"/>
+      <c r="B23" s="219"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="216"/>
-      <c r="B24" s="216"/>
+      <c r="A24" s="219"/>
+      <c r="B24" s="219"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="216"/>
-      <c r="B25" s="216"/>
+      <c r="A25" s="219"/>
+      <c r="B25" s="219"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="216"/>
-      <c r="B26" s="216"/>
+      <c r="A26" s="219"/>
+      <c r="B26" s="219"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="216"/>
-      <c r="B27" s="216"/>
+      <c r="A27" s="219"/>
+      <c r="B27" s="219"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="216"/>
-      <c r="B28" s="216"/>
+      <c r="A28" s="219"/>
+      <c r="B28" s="219"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="216"/>
-      <c r="B29" s="216"/>
+      <c r="A29" s="219"/>
+      <c r="B29" s="219"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="216"/>
-      <c r="B30" s="216"/>
+      <c r="A30" s="219"/>
+      <c r="B30" s="219"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="216"/>
-      <c r="B31" s="216"/>
+      <c r="A31" s="219"/>
+      <c r="B31" s="219"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="216"/>
-      <c r="B32" s="216"/>
+      <c r="A32" s="219"/>
+      <c r="B32" s="219"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="216"/>
-      <c r="B33" s="216"/>
+      <c r="A33" s="219"/>
+      <c r="B33" s="219"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="216"/>
-      <c r="B34" s="216"/>
+      <c r="A34" s="219"/>
+      <c r="B34" s="219"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="216"/>
-      <c r="B35" s="216"/>
+      <c r="A35" s="219"/>
+      <c r="B35" s="219"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="216"/>
-      <c r="B36" s="216"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="219"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="216"/>
-      <c r="B37" s="216"/>
+      <c r="A37" s="219"/>
+      <c r="B37" s="219"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="216"/>
-      <c r="B38" s="216"/>
+      <c r="A38" s="219"/>
+      <c r="B38" s="219"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="216"/>
-      <c r="B39" s="216"/>
+      <c r="A39" s="219"/>
+      <c r="B39" s="219"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="216"/>
-      <c r="B40" s="216"/>
+      <c r="A40" s="219"/>
+      <c r="B40" s="219"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="216"/>
-      <c r="B41" s="216"/>
+      <c r="A41" s="219"/>
+      <c r="B41" s="219"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="216"/>
-      <c r="B42" s="216"/>
+      <c r="A42" s="219"/>
+      <c r="B42" s="219"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="216"/>
-      <c r="B43" s="216"/>
+      <c r="A43" s="219"/>
+      <c r="B43" s="219"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="216"/>
-      <c r="B44" s="216"/>
+      <c r="A44" s="219"/>
+      <c r="B44" s="219"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="216"/>
-      <c r="B45" s="216"/>
+      <c r="A45" s="219"/>
+      <c r="B45" s="219"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="216"/>
-      <c r="B46" s="216"/>
+      <c r="A46" s="219"/>
+      <c r="B46" s="219"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="216"/>
-      <c r="B47" s="216"/>
+      <c r="A47" s="219"/>
+      <c r="B47" s="219"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="216"/>
-      <c r="B48" s="216"/>
+      <c r="A48" s="219"/>
+      <c r="B48" s="219"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="216"/>
-      <c r="B49" s="216"/>
+      <c r="A49" s="219"/>
+      <c r="B49" s="219"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="216"/>
-      <c r="B50" s="216"/>
+      <c r="A50" s="219"/>
+      <c r="B50" s="219"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="212" t="s">
@@ -21329,7 +21329,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" s="167" customFormat="1" ht="60">
-      <c r="A61" s="218" t="s">
+      <c r="A61" s="216" t="s">
         <v>2363</v>
       </c>
       <c r="B61" s="166" t="s">
@@ -21337,7 +21337,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" s="167" customFormat="1" ht="60">
-      <c r="A62" s="218"/>
+      <c r="A62" s="216"/>
       <c r="B62" s="166" t="s">
         <v>2365</v>
       </c>
@@ -21642,7 +21642,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="218" t="s">
+      <c r="A16" s="216" t="s">
         <v>1666</v>
       </c>
       <c r="B16" s="155" t="s">
@@ -21650,7 +21650,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="218"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="155" t="s">
         <v>2131</v>
       </c>
@@ -22160,7 +22160,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="218" t="s">
+      <c r="A81" s="216" t="s">
         <v>1749</v>
       </c>
       <c r="B81" s="155" t="s">
@@ -22168,13 +22168,13 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="218"/>
+      <c r="A82" s="216"/>
       <c r="B82" s="155" t="s">
         <v>1747</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="218"/>
+      <c r="A83" s="216"/>
       <c r="B83" s="155" t="s">
         <v>1748</v>
       </c>
@@ -22212,7 +22212,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="218" t="s">
+      <c r="A88" s="216" t="s">
         <v>1756</v>
       </c>
       <c r="B88" s="155" t="s">
@@ -22220,7 +22220,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="45">
-      <c r="A89" s="218"/>
+      <c r="A89" s="216"/>
       <c r="B89" s="155" t="s">
         <v>1758</v>
       </c>
@@ -22328,13 +22328,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="218"/>
+      <c r="A103" s="216"/>
       <c r="B103" s="155" t="s">
         <v>1802</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="218"/>
+      <c r="A104" s="216"/>
       <c r="B104" s="155" t="s">
         <v>1803</v>
       </c>
@@ -22380,53 +22380,53 @@
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="218" t="s">
+      <c r="A110" s="216" t="s">
         <v>1812</v>
       </c>
       <c r="B110" s="240"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="218"/>
+      <c r="A111" s="216"/>
       <c r="B111" s="240"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="218"/>
+      <c r="A112" s="216"/>
       <c r="B112" s="240"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="218"/>
+      <c r="A113" s="216"/>
       <c r="B113" s="240"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="218"/>
+      <c r="A114" s="216"/>
       <c r="B114" s="240"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="218"/>
+      <c r="A115" s="216"/>
       <c r="B115" s="240"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="218"/>
+      <c r="A116" s="216"/>
       <c r="B116" s="240"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="218"/>
+      <c r="A117" s="216"/>
       <c r="B117" s="240"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="218"/>
+      <c r="A118" s="216"/>
       <c r="B118" s="240"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="218"/>
+      <c r="A119" s="216"/>
       <c r="B119" s="240"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="218"/>
+      <c r="A120" s="216"/>
       <c r="B120" s="240"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="218"/>
+      <c r="A121" s="216"/>
       <c r="B121" s="240"/>
     </row>
     <row r="122" spans="1:2">
@@ -22566,57 +22566,57 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="218" t="s">
+      <c r="A139" s="216" t="s">
         <v>1847</v>
       </c>
       <c r="B139" s="240"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="218"/>
+      <c r="A140" s="216"/>
       <c r="B140" s="240"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="218"/>
+      <c r="A141" s="216"/>
       <c r="B141" s="240"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="218"/>
+      <c r="A142" s="216"/>
       <c r="B142" s="240"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="218"/>
+      <c r="A143" s="216"/>
       <c r="B143" s="240"/>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="218"/>
+      <c r="A144" s="216"/>
       <c r="B144" s="240"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="218"/>
+      <c r="A145" s="216"/>
       <c r="B145" s="240"/>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="218"/>
+      <c r="A146" s="216"/>
       <c r="B146" s="240"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="218"/>
+      <c r="A147" s="216"/>
       <c r="B147" s="240"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="218"/>
+      <c r="A148" s="216"/>
       <c r="B148" s="240"/>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="218"/>
+      <c r="A149" s="216"/>
       <c r="B149" s="240"/>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="218"/>
+      <c r="A150" s="216"/>
       <c r="B150" s="240"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="218"/>
+      <c r="A151" s="216"/>
       <c r="B151" s="240"/>
     </row>
     <row r="152" spans="1:2">
@@ -22808,7 +22808,7 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="218" t="s">
+      <c r="A176" s="216" t="s">
         <v>1887</v>
       </c>
       <c r="B176" s="155" t="s">
@@ -22816,13 +22816,13 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="218"/>
+      <c r="A177" s="216"/>
       <c r="B177" s="155" t="s">
         <v>2172</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="218" t="s">
+      <c r="A178" s="216" t="s">
         <v>1889</v>
       </c>
       <c r="B178" s="155" t="s">
@@ -22830,7 +22830,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" ht="30">
-      <c r="A179" s="218"/>
+      <c r="A179" s="216"/>
       <c r="B179" s="155" t="s">
         <v>1891</v>
       </c>
@@ -23437,7 +23437,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="217" t="s">
+      <c r="A54" s="221" t="s">
         <v>1425</v>
       </c>
       <c r="B54" s="83" t="s">
@@ -23445,7 +23445,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="75">
-      <c r="A55" s="217"/>
+      <c r="A55" s="221"/>
       <c r="B55" s="83" t="s">
         <v>1329</v>
       </c>
@@ -23459,7 +23459,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="75">
-      <c r="A57" s="217" t="s">
+      <c r="A57" s="221" t="s">
         <v>1331</v>
       </c>
       <c r="B57" s="83" t="s">
@@ -23467,7 +23467,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="60">
-      <c r="A58" s="217"/>
+      <c r="A58" s="221"/>
       <c r="B58" s="83" t="s">
         <v>1333</v>
       </c>
@@ -23561,7 +23561,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="60">
-      <c r="A70" s="218" t="s">
+      <c r="A70" s="216" t="s">
         <v>2342</v>
       </c>
       <c r="B70" s="163" t="s">
@@ -23569,25 +23569,25 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="45">
-      <c r="A71" s="218"/>
+      <c r="A71" s="216"/>
       <c r="B71" s="163" t="s">
         <v>2338</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="218"/>
+      <c r="A72" s="216"/>
       <c r="B72" s="164" t="s">
         <v>2339</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="218"/>
+      <c r="A73" s="216"/>
       <c r="B73" s="164" t="s">
         <v>2340</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="218"/>
+      <c r="A74" s="216"/>
       <c r="B74" s="164" t="s">
         <v>2341</v>
       </c>
@@ -23601,7 +23601,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="60">
-      <c r="A76" s="216" t="s">
+      <c r="A76" s="219" t="s">
         <v>2347</v>
       </c>
       <c r="B76" s="163" t="s">
@@ -23609,7 +23609,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="30">
-      <c r="A77" s="216"/>
+      <c r="A77" s="219"/>
       <c r="B77" s="205" t="s">
         <v>2346</v>
       </c>
@@ -23980,10 +23980,10 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="217" t="s">
+      <c r="A45" s="221" t="s">
         <v>2034</v>
       </c>
-      <c r="B45" s="217"/>
+      <c r="B45" s="221"/>
     </row>
     <row r="46" spans="1:2" ht="90">
       <c r="A46" s="4" t="s">
@@ -24673,9 +24673,9 @@
   </sheetPr>
   <dimension ref="A1:B510"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24749,7 +24749,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="221" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="83" t="s">
@@ -24757,7 +24757,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="217"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="83" t="s">
         <v>229</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="45">
+    <row r="129" spans="1:2" ht="60">
       <c r="A129" s="4" t="s">
         <v>208</v>
       </c>
@@ -25880,7 +25880,7 @@
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="218" t="s">
+      <c r="A154" s="216" t="s">
         <v>1415</v>
       </c>
       <c r="B154" s="83" t="s">
@@ -25888,7 +25888,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" s="82" customFormat="1">
-      <c r="A155" s="218"/>
+      <c r="A155" s="216"/>
       <c r="B155" s="117" t="s">
         <v>2043</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30">
+    <row r="158" spans="1:2" ht="45">
       <c r="A158" s="44" t="s">
         <v>1518</v>
       </c>
@@ -25926,10 +25926,10 @@
       </c>
     </row>
     <row r="160" spans="1:2" s="151" customFormat="1">
-      <c r="A160" s="214" t="s">
+      <c r="A160" s="217" t="s">
         <v>2249</v>
       </c>
-      <c r="B160" s="215"/>
+      <c r="B160" s="218"/>
     </row>
     <row r="161" spans="1:2" s="151" customFormat="1" ht="75">
       <c r="A161" s="149" t="s">
@@ -25980,7 +25980,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" s="151" customFormat="1" ht="45">
-      <c r="A167" s="216" t="s">
+      <c r="A167" s="219" t="s">
         <v>2254</v>
       </c>
       <c r="B167" s="150" t="s">
@@ -25988,13 +25988,13 @@
       </c>
     </row>
     <row r="168" spans="1:2" s="151" customFormat="1" ht="30">
-      <c r="A168" s="216"/>
+      <c r="A168" s="219"/>
       <c r="B168" s="150" t="s">
         <v>2267</v>
       </c>
     </row>
     <row r="169" spans="1:2" s="151" customFormat="1" ht="30">
-      <c r="A169" s="216" t="s">
+      <c r="A169" s="219" t="s">
         <v>2268</v>
       </c>
       <c r="B169" s="150" t="s">
@@ -26002,13 +26002,13 @@
       </c>
     </row>
     <row r="170" spans="1:2" s="151" customFormat="1" ht="45">
-      <c r="A170" s="216"/>
+      <c r="A170" s="219"/>
       <c r="B170" s="150" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="171" spans="1:2" s="151" customFormat="1" ht="30">
-      <c r="A171" s="216"/>
+      <c r="A171" s="219"/>
       <c r="B171" s="150" t="s">
         <v>2271</v>
       </c>
@@ -26042,10 +26042,10 @@
       <c r="B175" s="150"/>
     </row>
     <row r="176" spans="1:2" s="151" customFormat="1">
-      <c r="A176" s="214" t="s">
+      <c r="A176" s="217" t="s">
         <v>2423</v>
       </c>
-      <c r="B176" s="215"/>
+      <c r="B176" s="218"/>
     </row>
     <row r="177" spans="1:2" s="139" customFormat="1">
       <c r="A177" s="191" t="s">
@@ -26088,7 +26088,7 @@
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="216" t="s">
+      <c r="A182" s="219" t="s">
         <v>2412</v>
       </c>
       <c r="B182" s="192" t="s">
@@ -26096,31 +26096,31 @@
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="216"/>
+      <c r="A183" s="219"/>
       <c r="B183" s="192" t="s">
         <v>2401</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="216"/>
+      <c r="A184" s="219"/>
       <c r="B184" s="192" t="s">
         <v>2408</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="216"/>
+      <c r="A185" s="219"/>
       <c r="B185" s="192" t="s">
         <v>2409</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="216"/>
+      <c r="A186" s="219"/>
       <c r="B186" s="192" t="s">
         <v>2410</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="216"/>
+      <c r="A187" s="219"/>
       <c r="B187" s="192" t="s">
         <v>2411</v>
       </c>
@@ -26134,7 +26134,7 @@
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="218" t="s">
+      <c r="A189" s="216" t="s">
         <v>2420</v>
       </c>
       <c r="B189" s="192" t="s">
@@ -26142,43 +26142,43 @@
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="218"/>
+      <c r="A190" s="216"/>
       <c r="B190" s="192" t="s">
         <v>2422</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="218"/>
+      <c r="A191" s="216"/>
       <c r="B191" s="195" t="s">
         <v>2429</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="218"/>
+      <c r="A192" s="216"/>
       <c r="B192" s="195" t="s">
         <v>2438</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="218"/>
+      <c r="A193" s="216"/>
       <c r="B193" s="195" t="s">
         <v>2439</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="218"/>
+      <c r="A194" s="216"/>
       <c r="B194" s="195" t="s">
         <v>2440</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="218"/>
+      <c r="A195" s="216"/>
       <c r="B195" s="195" t="s">
         <v>2441</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="218" t="s">
+      <c r="A196" s="216" t="s">
         <v>2442</v>
       </c>
       <c r="B196" s="195" t="s">
@@ -26186,7 +26186,7 @@
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="218"/>
+      <c r="A197" s="216"/>
       <c r="B197" s="195" t="s">
         <v>2444</v>
       </c>
@@ -26203,7 +26203,7 @@
       <c r="A199" s="193"/>
       <c r="B199" s="195"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" ht="30">
       <c r="A200" s="190" t="s">
         <v>2402</v>
       </c>
@@ -26228,7 +26228,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" ht="45">
-      <c r="A203" s="221" t="s">
+      <c r="A203" s="220" t="s">
         <v>2414</v>
       </c>
       <c r="B203" s="202" t="s">
@@ -26236,13 +26236,13 @@
       </c>
     </row>
     <row r="204" spans="1:2" ht="165">
-      <c r="A204" s="221"/>
+      <c r="A204" s="220"/>
       <c r="B204" s="192" t="s">
         <v>2416</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="75">
-      <c r="A205" s="221"/>
+      <c r="A205" s="220"/>
       <c r="B205" s="192" t="s">
         <v>2417</v>
       </c>
@@ -26264,7 +26264,7 @@
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="219" t="s">
+      <c r="A208" s="214" t="s">
         <v>2432</v>
       </c>
       <c r="B208" s="195" t="s">
@@ -26272,21 +26272,21 @@
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="219"/>
+      <c r="A209" s="214"/>
       <c r="B209" s="195" t="s">
         <v>2434</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="90">
-      <c r="A210" s="220" t="s">
+      <c r="A210" s="215" t="s">
         <v>2435</v>
       </c>
       <c r="B210" s="195" t="s">
         <v>2436</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="45">
-      <c r="A211" s="220"/>
+    <row r="211" spans="1:2" ht="60">
+      <c r="A211" s="215"/>
       <c r="B211" s="195" t="s">
         <v>2437</v>
       </c>
@@ -28779,7 +28779,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="221" t="s">
         <v>1510</v>
       </c>
       <c r="B30" s="72" t="s">
@@ -28787,7 +28787,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45" customHeight="1">
-      <c r="A31" s="217"/>
+      <c r="A31" s="221"/>
       <c r="B31" s="72" t="s">
         <v>1512</v>
       </c>
@@ -28849,10 +28849,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A39" s="216" t="s">
+      <c r="A39" s="219" t="s">
         <v>1937</v>
       </c>
-      <c r="B39" s="216"/>
+      <c r="B39" s="219"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="72" t="s">
@@ -28879,10 +28879,10 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="216" t="s">
+      <c r="A43" s="219" t="s">
         <v>1531</v>
       </c>
-      <c r="B43" s="216"/>
+      <c r="B43" s="219"/>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="72" t="s">
@@ -28981,7 +28981,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="218" t="s">
+      <c r="A56" s="216" t="s">
         <v>1951</v>
       </c>
       <c r="B56" s="104" t="s">
@@ -28989,7 +28989,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
-      <c r="A57" s="218"/>
+      <c r="A57" s="216"/>
       <c r="B57" s="104" t="s">
         <v>1953</v>
       </c>
@@ -29033,7 +29033,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="218" t="s">
+      <c r="A63" s="216" t="s">
         <v>1964</v>
       </c>
       <c r="B63" s="104" t="s">
@@ -29041,7 +29041,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="218"/>
+      <c r="A64" s="216"/>
       <c r="B64" s="104" t="s">
         <v>1966</v>
       </c>
@@ -29847,7 +29847,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="217" t="s">
+      <c r="A37" s="221" t="s">
         <v>724</v>
       </c>
       <c r="B37" s="83" t="s">
@@ -29855,13 +29855,13 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="217"/>
+      <c r="A38" s="221"/>
       <c r="B38" s="83" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="217" t="s">
+      <c r="A39" s="221" t="s">
         <v>725</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -29869,13 +29869,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="217"/>
+      <c r="A40" s="221"/>
       <c r="B40" s="83" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90">
-      <c r="A41" s="217" t="s">
+      <c r="A41" s="221" t="s">
         <v>726</v>
       </c>
       <c r="B41" s="83" t="s">
@@ -29883,19 +29883,19 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="217"/>
+      <c r="A42" s="221"/>
       <c r="B42" s="87" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="217"/>
+      <c r="A43" s="221"/>
       <c r="B43" s="83" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="217"/>
+      <c r="A44" s="221"/>
       <c r="B44" s="83" t="s">
         <v>723</v>
       </c>
@@ -31256,15 +31256,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53" style="1" customWidth="1"/>
-    <col min="2" max="2" width="121.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="110.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="144" customFormat="1">
@@ -63504,7 +63504,7 @@
       </c>
     </row>
     <row r="4" spans="1:16384" s="140" customFormat="1">
-      <c r="A4" s="216"/>
+      <c r="A4" s="219"/>
       <c r="B4" s="144"/>
     </row>
     <row r="5" spans="1:16384" s="82" customFormat="1">
@@ -63578,7 +63578,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" ht="60">
+    <row r="16" spans="1:16384" ht="75">
       <c r="A16" s="1" t="s">
         <v>880</v>
       </c>
@@ -63610,7 +63610,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="105">
+    <row r="20" spans="1:2" ht="120">
       <c r="A20" s="1" t="s">
         <v>891</v>
       </c>
@@ -63634,7 +63634,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="150">
+    <row r="23" spans="1:2" ht="165">
       <c r="A23" s="1" t="s">
         <v>897</v>
       </c>
@@ -63873,7 +63873,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="94.5">
-      <c r="A53" s="216" t="s">
+      <c r="A53" s="219" t="s">
         <v>1170</v>
       </c>
       <c r="B53" s="28" t="s">
@@ -63881,7 +63881,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="110.25">
-      <c r="A54" s="216"/>
+      <c r="A54" s="219"/>
       <c r="B54" s="28" t="s">
         <v>1172</v>
       </c>
@@ -64277,7 +64277,7 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="216" t="s">
+      <c r="A156" s="219" t="s">
         <v>2387</v>
       </c>
       <c r="B156" s="187" t="s">

--- a/Definitions/2_Definitions.xlsx
+++ b/Definitions/2_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="937" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="937" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
@@ -62265,9 +62265,9 @@
   </sheetPr>
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64253,7 +64253,7 @@
   </sheetPr>
   <dimension ref="A1:B505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
